--- a/New3dirsingle.xlsx
+++ b/New3dirsingle.xlsx
@@ -497,10 +497,10 @@
         <v>-8.75</v>
       </c>
       <c r="B2" t="n">
-        <v>47.54684147871323</v>
+        <v>46.94620223519083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.131081086664687</v>
+        <v>-4.451612575060925</v>
       </c>
       <c r="D2" t="n">
         <v>45.53440916756428</v>
@@ -509,22 +509,22 @@
         <v>-5.227338036752574</v>
       </c>
       <c r="F2" t="n">
-        <v>2.012432311148949</v>
+        <v>1.411793067626547</v>
       </c>
       <c r="G2" t="n">
-        <v>5.358419123417261</v>
+        <v>0.7757254616916489</v>
       </c>
       <c r="H2" t="n">
-        <v>5.723857030810614</v>
+        <v>1.610872328185911</v>
       </c>
       <c r="I2" t="n">
         <v>-147.452373746903</v>
       </c>
       <c r="J2" t="n">
-        <v>-141.5294236762274</v>
+        <v>-148.1178410996094</v>
       </c>
       <c r="K2" t="n">
-        <v>5.922950070675654</v>
+        <v>-0.6654673527063721</v>
       </c>
     </row>
     <row r="3">
@@ -532,10 +532,10 @@
         <v>-7.5</v>
       </c>
       <c r="B3" t="n">
-        <v>47.35455390837498</v>
+        <v>48.50505077701817</v>
       </c>
       <c r="C3" t="n">
-        <v>12.98461440973965</v>
+        <v>10.12794166776362</v>
       </c>
       <c r="D3" t="n">
         <v>49.31848308852972</v>
@@ -544,22 +544,22 @@
         <v>6.870253642067061</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.963929180154743</v>
+        <v>-0.8134323115115549</v>
       </c>
       <c r="G3" t="n">
-        <v>6.114360767672592</v>
+        <v>3.257688025696561</v>
       </c>
       <c r="H3" t="n">
-        <v>6.422026582155905</v>
+        <v>3.357708057317936</v>
       </c>
       <c r="I3" t="n">
         <v>-126.3877489259169</v>
       </c>
       <c r="J3" t="n">
-        <v>-126.0090233991672</v>
+        <v>-128.5302796089058</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3787255267497187</v>
+        <v>-2.142530682988934</v>
       </c>
     </row>
     <row r="4">
@@ -567,10 +567,10 @@
         <v>-6.25</v>
       </c>
       <c r="B4" t="n">
-        <v>44.95384669445595</v>
+        <v>46.96994325913213</v>
       </c>
       <c r="C4" t="n">
-        <v>25.67596980918197</v>
+        <v>23.14389065033489</v>
       </c>
       <c r="D4" t="n">
         <v>49.42787284042433</v>
@@ -579,22 +579,22 @@
         <v>20.02298128036477</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.474026145968381</v>
+        <v>-2.457929581292198</v>
       </c>
       <c r="G4" t="n">
-        <v>5.652988528817197</v>
+        <v>3.120909369970111</v>
       </c>
       <c r="H4" t="n">
-        <v>7.209243321025272</v>
+        <v>3.972592745570388</v>
       </c>
       <c r="I4" t="n">
         <v>-105.3231241049307</v>
       </c>
       <c r="J4" t="n">
-        <v>-108.0360612642402</v>
+        <v>-110.5298102044575</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.71293715930949</v>
+        <v>-5.206686099526721</v>
       </c>
     </row>
     <row r="5">
@@ -602,10 +602,10 @@
         <v>-5</v>
       </c>
       <c r="B5" t="n">
-        <v>40.49052777587414</v>
+        <v>43.82831351469141</v>
       </c>
       <c r="C5" t="n">
-        <v>37.47037079580857</v>
+        <v>34.13708683791214</v>
       </c>
       <c r="D5" t="n">
         <v>45.63677034732733</v>
@@ -614,22 +614,22 @@
         <v>33.0512104776423</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.146242571453186</v>
+        <v>-1.808456832635919</v>
       </c>
       <c r="G5" t="n">
-        <v>4.41916031816627</v>
+        <v>1.085876360269836</v>
       </c>
       <c r="H5" t="n">
-        <v>6.783272847371872</v>
+        <v>2.109417830895626</v>
       </c>
       <c r="I5" t="n">
         <v>-84.2584992839446</v>
       </c>
       <c r="J5" t="n">
-        <v>-86.00489166095394</v>
+        <v>-90.54676439575229</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.746392377009343</v>
+        <v>-6.288265111807689</v>
       </c>
     </row>
     <row r="6">
@@ -637,10 +637,10 @@
         <v>-3.75</v>
       </c>
       <c r="B6" t="n">
-        <v>34.23201108921098</v>
+        <v>37.18518442371777</v>
       </c>
       <c r="C6" t="n">
-        <v>46.83654344792329</v>
+        <v>45.03252575351067</v>
       </c>
       <c r="D6" t="n">
         <v>38.10578548651065</v>
@@ -649,22 +649,22 @@
         <v>44.74924036827551</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.87377439729967</v>
+        <v>-0.9206010627928762</v>
       </c>
       <c r="G6" t="n">
-        <v>2.087303079647782</v>
+        <v>0.2832853852351604</v>
       </c>
       <c r="H6" t="n">
-        <v>4.400336603884018</v>
+        <v>0.9632013944670172</v>
       </c>
       <c r="I6" t="n">
         <v>-63.19387446295845</v>
       </c>
       <c r="J6" t="n">
-        <v>-64.51847500031306</v>
+        <v>-68.58620262480474</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.324600537354613</v>
+        <v>-5.392328161846294</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         <v>-2.5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.95175469565926</v>
+        <v>26.99276062662518</v>
       </c>
       <c r="C7" t="n">
-        <v>54.60018196653678</v>
+        <v>54.25958725505493</v>
       </c>
       <c r="D7" t="n">
         <v>27.37280401155764</v>
@@ -684,22 +684,22 @@
         <v>54.01218053327635</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.421049315898387</v>
+        <v>-0.3800433849324598</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5880014332604304</v>
+        <v>0.2474067217785816</v>
       </c>
       <c r="H7" t="n">
-        <v>2.491430407522627</v>
+        <v>0.4534788422982337</v>
       </c>
       <c r="I7" t="n">
         <v>-42.1292496419723</v>
       </c>
       <c r="J7" t="n">
-        <v>-41.84622098156419</v>
+        <v>-46.02636300820994</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2830286604081138</v>
+        <v>-3.89711336623764</v>
       </c>
     </row>
     <row r="8">
@@ -707,10 +707,10 @@
         <v>-1.25</v>
       </c>
       <c r="B8" t="n">
-        <v>13.1971373282751</v>
+        <v>14.27944682343351</v>
       </c>
       <c r="C8" t="n">
-        <v>59.96662512659321</v>
+        <v>60.18538870092041</v>
       </c>
       <c r="D8" t="n">
         <v>14.3025310714982</v>
@@ -719,22 +719,22 @@
         <v>59.95349850856751</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.105393743223107</v>
+        <v>-0.02308424806469311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01312661802570148</v>
+        <v>0.2318901923529069</v>
       </c>
       <c r="H8" t="n">
-        <v>1.105471680169866</v>
+        <v>0.2330363572882576</v>
       </c>
       <c r="I8" t="n">
         <v>-21.06462482098615</v>
       </c>
       <c r="J8" t="n">
-        <v>-20.05757494369206</v>
+        <v>-23.63920873432344</v>
       </c>
       <c r="K8" t="n">
-        <v>1.007049877294094</v>
+        <v>-2.574583913337293</v>
       </c>
     </row>
     <row r="9">
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.223186679585219</v>
+        <v>-1.22417005007659</v>
       </c>
       <c r="C9" t="n">
-        <v>61.88789665946027</v>
+        <v>62.30367018372713</v>
       </c>
       <c r="D9" t="n">
         <v>-0</v>
@@ -754,22 +754,22 @@
         <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>1.223186679585219</v>
+        <v>-1.22417005007659</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1121033405397327</v>
+        <v>0.3036701837271281</v>
       </c>
       <c r="H9" t="n">
-        <v>1.228312994344227</v>
+        <v>1.261272330620706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9519173452025271</v>
+        <v>0.1852217281807595</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9519173452025271</v>
+        <v>0.1852217281807595</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         <v>1.25</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.97318325292078</v>
+        <v>-14.45858977057996</v>
       </c>
       <c r="C10" t="n">
-        <v>60.75161852621494</v>
+        <v>60.3773298256317</v>
       </c>
       <c r="D10" t="n">
         <v>-14.3025310714982</v>
@@ -789,22 +789,22 @@
         <v>59.95349850856751</v>
       </c>
       <c r="F10" t="n">
-        <v>3.329347818577425</v>
+        <v>-0.1560586990817558</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7981200176474346</v>
+        <v>0.4238313170641987</v>
       </c>
       <c r="H10" t="n">
-        <v>3.423675285367437</v>
+        <v>0.4516495354624683</v>
       </c>
       <c r="I10" t="n">
         <v>21.06462482098615</v>
       </c>
       <c r="J10" t="n">
-        <v>20.46906322950501</v>
+        <v>19.63664397185486</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.5955615914811361</v>
+        <v>-1.427980849131288</v>
       </c>
     </row>
     <row r="11">
@@ -812,10 +812,10 @@
         <v>2.5</v>
       </c>
       <c r="B11" t="n">
-        <v>-23.6885862045255</v>
+        <v>-27.49584682320939</v>
       </c>
       <c r="C11" t="n">
-        <v>56.08548683322913</v>
+        <v>54.611229262237</v>
       </c>
       <c r="D11" t="n">
         <v>-27.37280401155764</v>
@@ -824,22 +824,22 @@
         <v>54.01218053327635</v>
       </c>
       <c r="F11" t="n">
-        <v>3.684217807032145</v>
+        <v>-0.1230428116517501</v>
       </c>
       <c r="G11" t="n">
-        <v>2.073306299952783</v>
+        <v>0.5990487289606534</v>
       </c>
       <c r="H11" t="n">
-        <v>4.227535909141003</v>
+        <v>0.6115545054764477</v>
       </c>
       <c r="I11" t="n">
         <v>42.1292496419723</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44602029877938</v>
+        <v>40.68278463144615</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3167706568070798</v>
+        <v>-1.446465010526147</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>3.75</v>
       </c>
       <c r="B12" t="n">
-        <v>-35.26901740557405</v>
+        <v>-39.14198724556438</v>
       </c>
       <c r="C12" t="n">
-        <v>47.54283228339548</v>
+        <v>44.84701566353674</v>
       </c>
       <c r="D12" t="n">
         <v>-38.10578548651065</v>
@@ -859,22 +859,22 @@
         <v>44.74924036827551</v>
       </c>
       <c r="F12" t="n">
-        <v>2.836768080936594</v>
+        <v>-1.036201759053732</v>
       </c>
       <c r="G12" t="n">
-        <v>2.793591915119976</v>
+        <v>0.09777529526122919</v>
       </c>
       <c r="H12" t="n">
-        <v>3.981382791599469</v>
+        <v>1.040804541606861</v>
       </c>
       <c r="I12" t="n">
         <v>63.19387446295845</v>
       </c>
       <c r="J12" t="n">
-        <v>64.66067384821952</v>
+        <v>62.59361406751216</v>
       </c>
       <c r="K12" t="n">
-        <v>1.466799385261069</v>
+        <v>-0.6002603954462913</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>-44.12841164732124</v>
+        <v>-47.81620274827953</v>
       </c>
       <c r="C13" t="n">
-        <v>35.61912916770113</v>
+        <v>31.26568318394867</v>
       </c>
       <c r="D13" t="n">
         <v>-45.63677034732733</v>
@@ -894,22 +894,22 @@
         <v>33.0512104776423</v>
       </c>
       <c r="F13" t="n">
-        <v>1.508358700006092</v>
+        <v>-2.179432400952201</v>
       </c>
       <c r="G13" t="n">
-        <v>2.567918690058825</v>
+        <v>-1.785527293693626</v>
       </c>
       <c r="H13" t="n">
-        <v>2.978145793381764</v>
+        <v>2.817451562466542</v>
       </c>
       <c r="I13" t="n">
         <v>84.2584992839446</v>
       </c>
       <c r="J13" t="n">
-        <v>88.33553065899922</v>
+        <v>85.8690883225655</v>
       </c>
       <c r="K13" t="n">
-        <v>4.077031375054617</v>
+        <v>1.610589038620901</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         <v>6.25</v>
       </c>
       <c r="B14" t="n">
-        <v>-48.27334558530175</v>
+        <v>-51.26017282117959</v>
       </c>
       <c r="C14" t="n">
-        <v>24.7735797665706</v>
+        <v>17.92386377788047</v>
       </c>
       <c r="D14" t="n">
         <v>-49.42787284042433</v>
@@ -929,22 +929,22 @@
         <v>20.02298128036477</v>
       </c>
       <c r="F14" t="n">
-        <v>1.154527255122574</v>
+        <v>-1.832299980755259</v>
       </c>
       <c r="G14" t="n">
-        <v>4.750598486205828</v>
+        <v>-2.099117502484305</v>
       </c>
       <c r="H14" t="n">
-        <v>4.888877085789943</v>
+        <v>2.786326884755568</v>
       </c>
       <c r="I14" t="n">
         <v>105.3231241049307</v>
       </c>
       <c r="J14" t="n">
-        <v>106.9758972698393</v>
+        <v>107.8138129154113</v>
       </c>
       <c r="K14" t="n">
-        <v>1.652773164908538</v>
+        <v>2.490688810480577</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         <v>7.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-49.65762644313011</v>
+        <v>-50.87354989954315</v>
       </c>
       <c r="C15" t="n">
-        <v>13.8275794230081</v>
+        <v>5.398368258487495</v>
       </c>
       <c r="D15" t="n">
         <v>-49.31848308852972</v>
@@ -964,22 +964,22 @@
         <v>6.870253642067061</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3391433546003881</v>
+        <v>-1.555066811013425</v>
       </c>
       <c r="G15" t="n">
-        <v>6.957325780941035</v>
+        <v>-1.471885383579566</v>
       </c>
       <c r="H15" t="n">
-        <v>6.965586855184307</v>
+        <v>2.141186439596195</v>
       </c>
       <c r="I15" t="n">
         <v>126.3877489259169</v>
       </c>
       <c r="J15" t="n">
-        <v>125.0218995913384</v>
+        <v>128.4484038522306</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.365849334578456</v>
+        <v>2.060654926313674</v>
       </c>
     </row>
     <row r="16">
@@ -987,10 +987,10 @@
         <v>8.75</v>
       </c>
       <c r="B16" t="n">
-        <v>-48.35014566202049</v>
+        <v>-47.58573668468473</v>
       </c>
       <c r="C16" t="n">
-        <v>2.804510923924255</v>
+        <v>-5.828860076359402</v>
       </c>
       <c r="D16" t="n">
         <v>-45.53440916756428</v>
@@ -999,22 +999,22 @@
         <v>-5.227338036752574</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.815736494456203</v>
+        <v>-2.051327517120441</v>
       </c>
       <c r="G16" t="n">
-        <v>8.031848960676829</v>
+        <v>-0.6015220396068282</v>
       </c>
       <c r="H16" t="n">
-        <v>8.511108607774782</v>
+        <v>2.137702819998204</v>
       </c>
       <c r="I16" t="n">
         <v>147.452373746903</v>
       </c>
       <c r="J16" t="n">
-        <v>143.3588193837393</v>
+        <v>147.7195379102395</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.093554363163776</v>
+        <v>0.2671641633364459</v>
       </c>
     </row>
     <row r="17">
@@ -1022,10 +1022,10 @@
         <v>7.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-47.96726638376249</v>
+        <v>-49.4507808963804</v>
       </c>
       <c r="C17" t="n">
-        <v>13.9220805279189</v>
+        <v>6.441217148184048</v>
       </c>
       <c r="D17" t="n">
         <v>-49.31848308852972</v>
@@ -1034,22 +1034,22 @@
         <v>6.870253642067061</v>
       </c>
       <c r="F17" t="n">
-        <v>1.351216704767239</v>
+        <v>-0.1322978078506765</v>
       </c>
       <c r="G17" t="n">
-        <v>7.051826885851836</v>
+        <v>-0.4290364938830127</v>
       </c>
       <c r="H17" t="n">
-        <v>7.180114832735256</v>
+        <v>0.448971071501854</v>
       </c>
       <c r="I17" t="n">
         <v>126.3877489259169</v>
       </c>
       <c r="J17" t="n">
-        <v>129.6041546048921</v>
+        <v>131.5236964632</v>
       </c>
       <c r="K17" t="n">
-        <v>3.216405678975178</v>
+        <v>5.135947537283101</v>
       </c>
     </row>
     <row r="18">
@@ -1057,10 +1057,10 @@
         <v>6.25</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.99264141830595</v>
+        <v>-48.72915172837482</v>
       </c>
       <c r="C18" t="n">
-        <v>26.91212977962187</v>
+        <v>21.69995601160547</v>
       </c>
       <c r="D18" t="n">
         <v>-49.42787284042433</v>
@@ -1069,22 +1069,22 @@
         <v>20.02298128036477</v>
       </c>
       <c r="F18" t="n">
-        <v>3.435231422118378</v>
+        <v>0.6987211120495047</v>
       </c>
       <c r="G18" t="n">
-        <v>6.889148499257097</v>
+        <v>1.676974731240691</v>
       </c>
       <c r="H18" t="n">
-        <v>7.698128471799218</v>
+        <v>1.816715564320261</v>
       </c>
       <c r="I18" t="n">
         <v>105.3231241049307</v>
       </c>
       <c r="J18" t="n">
-        <v>111.1459620349332</v>
+        <v>109.9839390815064</v>
       </c>
       <c r="K18" t="n">
-        <v>5.822837930002493</v>
+        <v>4.660814976575622</v>
       </c>
     </row>
     <row r="19">
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>-41.13318897751507</v>
+        <v>-45.45872040648921</v>
       </c>
       <c r="C19" t="n">
-        <v>38.93441613820595</v>
+        <v>33.9489245756362</v>
       </c>
       <c r="D19" t="n">
         <v>-45.63677034732733</v>
@@ -1104,22 +1104,22 @@
         <v>33.0512104776423</v>
       </c>
       <c r="F19" t="n">
-        <v>4.50358136981226</v>
+        <v>0.1780499408381147</v>
       </c>
       <c r="G19" t="n">
-        <v>5.883205660563647</v>
+        <v>0.897714097993898</v>
       </c>
       <c r="H19" t="n">
-        <v>7.409072411510648</v>
+        <v>0.915200733811689</v>
       </c>
       <c r="I19" t="n">
         <v>84.2584992839446</v>
       </c>
       <c r="J19" t="n">
-        <v>88.23501154094592</v>
+        <v>86.93212185345129</v>
       </c>
       <c r="K19" t="n">
-        <v>3.976512257001318</v>
+        <v>2.673622569506691</v>
       </c>
     </row>
     <row r="20">
@@ -1127,10 +1127,10 @@
         <v>3.75</v>
       </c>
       <c r="B20" t="n">
-        <v>-33.66736564522408</v>
+        <v>-37.3763693024181</v>
       </c>
       <c r="C20" t="n">
-        <v>48.51891526000199</v>
+        <v>46.27244894069016</v>
       </c>
       <c r="D20" t="n">
         <v>-38.10578548651065</v>
@@ -1139,22 +1139,22 @@
         <v>44.74924036827551</v>
       </c>
       <c r="F20" t="n">
-        <v>4.438419841286567</v>
+        <v>0.7294161840925497</v>
       </c>
       <c r="G20" t="n">
-        <v>3.769674891726481</v>
+        <v>1.523208572414653</v>
       </c>
       <c r="H20" t="n">
-        <v>5.82323101695608</v>
+        <v>1.688849408530441</v>
       </c>
       <c r="I20" t="n">
         <v>63.19387446295845</v>
       </c>
       <c r="J20" t="n">
-        <v>66.75187725954765</v>
+        <v>62.55404158608538</v>
       </c>
       <c r="K20" t="n">
-        <v>3.558002796589207</v>
+        <v>-0.6398328768730721</v>
       </c>
     </row>
     <row r="21">
@@ -1162,10 +1162,10 @@
         <v>2.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-22.85766525479866</v>
+        <v>-27.75611533555779</v>
       </c>
       <c r="C21" t="n">
-        <v>56.5121871150297</v>
+        <v>54.46985042323529</v>
       </c>
       <c r="D21" t="n">
         <v>-27.37280401155764</v>
@@ -1174,22 +1174,22 @@
         <v>54.01218053327635</v>
       </c>
       <c r="F21" t="n">
-        <v>4.515138756758979</v>
+        <v>-0.3833113240001467</v>
       </c>
       <c r="G21" t="n">
-        <v>2.500006581753354</v>
+        <v>0.457669889958936</v>
       </c>
       <c r="H21" t="n">
-        <v>5.161057149615485</v>
+        <v>0.5969835000079734</v>
       </c>
       <c r="I21" t="n">
         <v>42.1292496419723</v>
       </c>
       <c r="J21" t="n">
-        <v>42.36778587856293</v>
+        <v>41.93695016186427</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2385362365906332</v>
+        <v>-0.1922994801080335</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1197,10 @@
         <v>1.25</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.68939184959281</v>
+        <v>-15.47022747489376</v>
       </c>
       <c r="C22" t="n">
-        <v>60.88895262818099</v>
+        <v>60.2068688751953</v>
       </c>
       <c r="D22" t="n">
         <v>-14.3025310714982</v>
@@ -1209,22 +1209,22 @@
         <v>59.95349850856751</v>
       </c>
       <c r="F22" t="n">
-        <v>3.613139221905394</v>
+        <v>-1.167696403395556</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9354541196134889</v>
+        <v>0.2533703666277987</v>
       </c>
       <c r="H22" t="n">
-        <v>3.732271352242889</v>
+        <v>1.194868793294068</v>
       </c>
       <c r="I22" t="n">
         <v>21.06462482098615</v>
       </c>
       <c r="J22" t="n">
-        <v>19.39886940641262</v>
+        <v>20.47338889884572</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.665755414573532</v>
+        <v>-0.5912359221404273</v>
       </c>
     </row>
     <row r="23">
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.347013723999346</v>
+        <v>-1.984769716702278</v>
       </c>
       <c r="C23" t="n">
-        <v>61.8286713367065</v>
+        <v>62.33380666389728</v>
       </c>
       <c r="D23" t="n">
         <v>-0</v>
@@ -1244,22 +1244,22 @@
         <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>1.347013723999346</v>
+        <v>-1.984769716702278</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1713286632935009</v>
+        <v>0.3338066638972847</v>
       </c>
       <c r="H23" t="n">
-        <v>1.357865782582551</v>
+        <v>2.012644458716113</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6828646771866049</v>
+        <v>-0.9757023162494569</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.6828646771866049</v>
+        <v>-0.9757023162494569</v>
       </c>
     </row>
     <row r="24">
@@ -1267,10 +1267,10 @@
         <v>-1.25</v>
       </c>
       <c r="B24" t="n">
-        <v>13.57921252132286</v>
+        <v>13.16512052623859</v>
       </c>
       <c r="C24" t="n">
-        <v>59.75855771008484</v>
+        <v>60.58535728142931</v>
       </c>
       <c r="D24" t="n">
         <v>14.3025310714982</v>
@@ -1279,22 +1279,22 @@
         <v>59.95349850856751</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7233185501753425</v>
+        <v>-1.13741054525962</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1949407984826621</v>
+        <v>0.6318587728618041</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7491272521680261</v>
+        <v>1.301133450999632</v>
       </c>
       <c r="I24" t="n">
         <v>-21.06462482098615</v>
       </c>
       <c r="J24" t="n">
-        <v>-19.37224892814626</v>
+        <v>-20.88746984089881</v>
       </c>
       <c r="K24" t="n">
-        <v>1.692375892839888</v>
+        <v>0.1771549800873444</v>
       </c>
     </row>
     <row r="25">
@@ -1302,10 +1302,10 @@
         <v>-2.5</v>
       </c>
       <c r="B25" t="n">
-        <v>26.33526142424765</v>
+        <v>28.78497664703542</v>
       </c>
       <c r="C25" t="n">
-        <v>53.95394545627445</v>
+        <v>53.46242814501506</v>
       </c>
       <c r="D25" t="n">
         <v>27.37280401155764</v>
@@ -1314,22 +1314,22 @@
         <v>54.01218053327635</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.037542587309989</v>
+        <v>1.412172635477777</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05823507700189623</v>
+        <v>-0.5497523882612896</v>
       </c>
       <c r="H25" t="n">
-        <v>1.039175608198789</v>
+        <v>1.515407285448781</v>
       </c>
       <c r="I25" t="n">
         <v>-42.1292496419723</v>
       </c>
       <c r="J25" t="n">
-        <v>-42.19642963724397</v>
+        <v>-45.18282178851709</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.06717999527167251</v>
+        <v>-3.053572146544788</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         <v>-3.75</v>
       </c>
       <c r="B26" t="n">
-        <v>37.21289774941465</v>
+        <v>40.68032894354023</v>
       </c>
       <c r="C26" t="n">
-        <v>44.53943561968035</v>
+        <v>42.37176974146913</v>
       </c>
       <c r="D26" t="n">
         <v>38.10578548651065</v>
@@ -1349,22 +1349,22 @@
         <v>44.74924036827551</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8928877370959967</v>
+        <v>2.574543457029584</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.209804748595154</v>
+        <v>-2.377470626806378</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9172058349081113</v>
+        <v>3.504374493894874</v>
       </c>
       <c r="I26" t="n">
         <v>-63.19387446295845</v>
       </c>
       <c r="J26" t="n">
-        <v>-65.62995090329412</v>
+        <v>-69.14892402853363</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.436076440335668</v>
+        <v>-5.95504956557518</v>
       </c>
     </row>
     <row r="27">
@@ -1372,10 +1372,10 @@
         <v>-5</v>
       </c>
       <c r="B27" t="n">
-        <v>44.56806970246852</v>
+        <v>47.57133409217445</v>
       </c>
       <c r="C27" t="n">
-        <v>33.25349633525025</v>
+        <v>29.63778221329139</v>
       </c>
       <c r="D27" t="n">
         <v>45.63677034732733</v>
@@ -1384,22 +1384,22 @@
         <v>33.0512104776423</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.068700644858808</v>
+        <v>1.934563744847125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2022858576079543</v>
+        <v>-3.413428264350912</v>
       </c>
       <c r="H27" t="n">
-        <v>1.087676715072</v>
+        <v>3.923522575281888</v>
       </c>
       <c r="I27" t="n">
         <v>-84.2584992839446</v>
       </c>
       <c r="J27" t="n">
-        <v>-86.15353613149051</v>
+        <v>-91.65483403490494</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.89503684754591</v>
+        <v>-7.396334750960335</v>
       </c>
     </row>
     <row r="28">
@@ -1407,10 +1407,10 @@
         <v>-6.25</v>
       </c>
       <c r="B28" t="n">
-        <v>48.3087396761542</v>
+        <v>50.31696237457952</v>
       </c>
       <c r="C28" t="n">
-        <v>21.06898022876258</v>
+        <v>17.04973820993325</v>
       </c>
       <c r="D28" t="n">
         <v>49.42787284042433</v>
@@ -1419,22 +1419,22 @@
         <v>20.02298128036477</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.119133164270124</v>
+        <v>0.8890895341551897</v>
       </c>
       <c r="G28" t="n">
-        <v>1.045998948397802</v>
+        <v>-2.973243070431526</v>
       </c>
       <c r="H28" t="n">
-        <v>1.531852747302615</v>
+        <v>3.103329591843796</v>
       </c>
       <c r="I28" t="n">
         <v>-105.3231241049307</v>
       </c>
       <c r="J28" t="n">
-        <v>-107.760580523285</v>
+        <v>-112.7446061716002</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.437456418354301</v>
+        <v>-7.421482066669441</v>
       </c>
     </row>
     <row r="29">
@@ -1442,10 +1442,10 @@
         <v>-7.5</v>
       </c>
       <c r="B29" t="n">
-        <v>48.87729386585049</v>
+        <v>49.72821500825575</v>
       </c>
       <c r="C29" t="n">
-        <v>10.23902352074506</v>
+        <v>7.169546258345367</v>
       </c>
       <c r="D29" t="n">
         <v>49.31848308852972</v>
@@ -1454,22 +1454,22 @@
         <v>6.870253642067061</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4411892226792347</v>
+        <v>0.4097319197260205</v>
       </c>
       <c r="G29" t="n">
-        <v>3.368769878677996</v>
+        <v>0.2992926162783061</v>
       </c>
       <c r="H29" t="n">
-        <v>3.397537111746753</v>
+        <v>0.5074015335028891</v>
       </c>
       <c r="I29" t="n">
         <v>-126.3877489259169</v>
       </c>
       <c r="J29" t="n">
-        <v>-125.945760242329</v>
+        <v>-129.4369724556535</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4419886835878515</v>
+        <v>-3.049223529736594</v>
       </c>
     </row>
     <row r="30">
@@ -1477,10 +1477,10 @@
         <v>-8.75</v>
       </c>
       <c r="B30" t="n">
-        <v>47.66133618859932</v>
+        <v>46.92267521324921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.471386475684259</v>
+        <v>-4.484051465474874</v>
       </c>
       <c r="D30" t="n">
         <v>45.53440916756428</v>
@@ -1489,22 +1489,22 @@
         <v>-5.227338036752574</v>
       </c>
       <c r="F30" t="n">
-        <v>2.126927021035037</v>
+        <v>1.388266045684922</v>
       </c>
       <c r="G30" t="n">
-        <v>5.698724512436833</v>
+        <v>0.7432865712777001</v>
       </c>
       <c r="H30" t="n">
-        <v>6.082703315258553</v>
+        <v>1.574724591998045</v>
       </c>
       <c r="I30" t="n">
         <v>-147.452373746903</v>
       </c>
       <c r="J30" t="n">
-        <v>-141.1235812224467</v>
+        <v>-148.1241893869777</v>
       </c>
       <c r="K30" t="n">
-        <v>6.328792524456361</v>
+        <v>-0.6718156400746977</v>
       </c>
     </row>
   </sheetData>
